--- a/Hands-on Projects/Timesheet Migration/Timesheets/Pascal Govender/Pascal Govender May Final.xlsx
+++ b/Hands-on Projects/Timesheet Migration/Timesheets/Pascal Govender/Pascal Govender May Final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\scGradsGithub\Hands-on Projects\Timesheet Migration\Timesheets\Pascal Govender\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D824790-F332-48FC-8DA9-D260E3FDBAA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F67887-3F6F-4D1B-9380-39932BB54D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
+    <workbookView xWindow="1092" yWindow="1560" windowWidth="17280" windowHeight="8880" xr2:uid="{1C8F8026-B005-4B08-94D3-371A77F74D8F}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Key" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="TSheet" localSheetId="0">May!$A$8:$J$146</definedName>
+    <definedName name="TSheet">May!$A$8:$J$146</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -2001,15 +2001,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2023,21 +2038,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2806,8 +2806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451FE93A-CBFB-4D27-9D4A-1E2332DAE6F0}">
   <dimension ref="A5:J156"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:B5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
@@ -2979,7 +2979,7 @@
         <v>0.45624999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A12" s="20">
         <v>45779</v>
       </c>
@@ -5601,7 +5601,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A94" s="20">
         <v>45797</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A126" s="20">
         <v>45804</v>
       </c>
@@ -6827,7 +6827,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A132" s="20">
         <v>45805</v>
       </c>
@@ -7025,7 +7025,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" ht="25.2" x14ac:dyDescent="0.2">
       <c r="A138" s="20">
         <v>45806</v>
       </c>
@@ -7615,27 +7615,27 @@
       <c r="F7" s="83"/>
     </row>
     <row r="8" spans="1:15" ht="27.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="126" t="s">
         <v>109</v>
       </c>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
+      <c r="B8" s="126"/>
+      <c r="C8" s="126"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="126"/>
     </row>
     <row r="9" spans="1:15" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80" t="s">
         <v>110</v>
       </c>
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="123" t="s">
         <v>111</v>
       </c>
-      <c r="C9" s="133"/>
-      <c r="D9" s="132" t="s">
+      <c r="C9" s="124"/>
+      <c r="D9" s="123" t="s">
         <v>112</v>
       </c>
-      <c r="E9" s="133"/>
+      <c r="E9" s="124"/>
       <c r="F9" s="81" t="s">
         <v>113</v>
       </c>
@@ -7644,103 +7644,103 @@
       <c r="A10" s="76">
         <v>45566</v>
       </c>
-      <c r="B10" s="123" t="s">
+      <c r="B10" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="C10" s="123"/>
-      <c r="D10" s="123" t="s">
+      <c r="C10" s="125"/>
+      <c r="D10" s="125" t="s">
         <v>115</v>
       </c>
-      <c r="E10" s="123"/>
+      <c r="E10" s="125"/>
       <c r="F10" s="75">
         <v>200</v>
       </c>
-      <c r="G10" s="130" t="s">
+      <c r="G10" s="121" t="s">
         <v>116</v>
       </c>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="131"/>
-      <c r="K10" s="131"/>
-      <c r="L10" s="131"/>
-      <c r="M10" s="131"/>
-      <c r="N10" s="131"/>
-      <c r="O10" s="131"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="122"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="122"/>
+      <c r="M10" s="122"/>
+      <c r="N10" s="122"/>
+      <c r="O10" s="122"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="76">
         <v>45566</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="123" t="s">
+      <c r="C11" s="128"/>
+      <c r="D11" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="E11" s="123"/>
+      <c r="E11" s="125"/>
       <c r="F11" s="75"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="76">
         <v>45566</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="127" t="s">
         <v>119</v>
       </c>
-      <c r="C12" s="122"/>
-      <c r="D12" s="123"/>
-      <c r="E12" s="123"/>
+      <c r="C12" s="128"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="125"/>
       <c r="F12" s="75"/>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="76">
         <v>45566</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="122"/>
-      <c r="D13" s="123"/>
-      <c r="E13" s="123"/>
+      <c r="B13" s="127"/>
+      <c r="C13" s="128"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
       <c r="F13" s="75"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="76">
         <v>45566</v>
       </c>
-      <c r="B14" s="121"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="123"/>
-      <c r="E14" s="123"/>
+      <c r="B14" s="127"/>
+      <c r="C14" s="128"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="125"/>
       <c r="F14" s="75"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="76">
         <v>45566</v>
       </c>
-      <c r="B15" s="127"/>
-      <c r="C15" s="128"/>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
+      <c r="B15" s="132"/>
+      <c r="C15" s="133"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
       <c r="F15" s="75"/>
     </row>
     <row r="16" spans="1:15" ht="13.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="76">
         <v>45566</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="122"/>
-      <c r="D16" s="123"/>
-      <c r="E16" s="123"/>
+      <c r="B16" s="127"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
       <c r="F16" s="75"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="124" t="s">
+      <c r="A17" s="129" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="125"/>
-      <c r="C17" s="125"/>
-      <c r="D17" s="125"/>
-      <c r="E17" s="126"/>
+      <c r="B17" s="130"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
       <c r="F17" s="74">
         <f>SUM(F10:F16)</f>
         <v>200</v>
@@ -7756,16 +7756,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="G10:O10"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="A17:E17"/>
@@ -7775,6 +7765,16 @@
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="G10:O10"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7 D18" xr:uid="{517DF1E8-3052-48CF-9AE1-C19E6ECB6686}">
@@ -8725,26 +8725,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d277ce56-8de3-43c1-b9ce-ff5033dad840">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DEA673424E99D044B4A1FB44474552A9" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="541cb6b9fee9288be1513af1acd9efd1">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d277ce56-8de3-43c1-b9ce-ff5033dad840" xmlns:ns3="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="073d35413c2933ae4492be48b3c2f5c2" ns2:_="" ns3:_="">
     <xsd:import namespace="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
@@ -8939,26 +8919,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AA5A1D0-F292-41D6-8265-47C051C6FDE3}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
-    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F92F5B9-A133-4AC9-BEEB-707BFF7BBC64}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d277ce56-8de3-43c1-b9ce-ff5033dad840">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0b8b2123-f09a-47bf-9044-f6e489c8d7a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E890025D-430A-41B5-91E2-58AAAE3D8ACB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8977,6 +8958,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F92F5B9-A133-4AC9-BEEB-707BFF7BBC64}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3AA5A1D0-F292-41D6-8265-47C051C6FDE3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="d277ce56-8de3-43c1-b9ce-ff5033dad840"/>
+    <ds:schemaRef ds:uri="0b8b2123-f09a-47bf-9044-f6e489c8d7a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{5138fff4-6130-46cf-adb5-ec5d984d54d5}" enabled="1" method="Privileged" siteId="{174c7352-9c5c-4558-b848-be140b444e7d}" contentBits="2" removed="0"/>
